--- a/biology/Médecine/Missions_d'intérêt_général_et_d'aide_à_la_contractualisation/Missions_d'intérêt_général_et_d'aide_à_la_contractualisation.xlsx
+++ b/biology/Médecine/Missions_d'intérêt_général_et_d'aide_à_la_contractualisation/Missions_d'intérêt_général_et_d'aide_à_la_contractualisation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Missions_d%27int%C3%A9r%C3%AAt_g%C3%A9n%C3%A9ral_et_d%27aide_%C3%A0_la_contractualisation</t>
+          <t>Missions_d'intérêt_général_et_d'aide_à_la_contractualisation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les missions d’intérêt général et d’aide à la contractualisation (MIGAC) font partie intégrante de la réforme de la Tarification à l'activité (T2A) instaurée dans les hôpitaux français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les missions d’intérêt général et d’aide à la contractualisation (MIGAC) font partie intégrante de la réforme de la Tarification à l'activité (T2A) instaurée dans les hôpitaux français.
 Le rapport annuel sur les dotations affectées au financement des MIGAC est transmis au Parlement pour le 15 octobre de chaque année, conformément à l’avant dernier alinéa de l’article L. 162-22-13 du code de la sécurité sociale.
 </t>
         </is>
